--- a/src/test/data/sample.xlsx
+++ b/src/test/data/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -202,13 +202,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -218,6 +218,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -515,7 +520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -562,13 +569,13 @@
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -576,8 +583,8 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -588,11 +595,11 @@
       <c r="B12" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -603,29 +610,29 @@
       <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="6"/>
     </row>
   </sheetData>
@@ -641,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
